--- a/数据表格.xlsx
+++ b/数据表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24210" windowHeight="13140"/>
+    <workbookView windowWidth="28110" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1509,7 +1509,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1579,9 +1579,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1608,9 +1605,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1750,6 +1744,48 @@
         <a:xfrm>
           <a:off x="11008995" y="3429000"/>
           <a:ext cx="552450" cy="334010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>173990</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7115175" y="26866215"/>
+          <a:ext cx="9458325" cy="7134225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2054,8 +2090,8 @@
   <sheetPr/>
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2303,7 +2339,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="29"/>
+      <c r="I19" s="28"/>
       <c r="J19" s="11" t="s">
         <v>20</v>
       </c>
@@ -2317,7 +2353,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="30"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="11"/>
     </row>
     <row r="21" ht="14.25" spans="1:10">
@@ -2468,7 +2504,7 @@
       <c r="D34" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="23"/>
+      <c r="E34" s="21"/>
       <c r="G34" t="s">
         <v>36</v>
       </c>
@@ -2477,7 +2513,7 @@
       <c r="C35" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="21">
         <v>26</v>
       </c>
       <c r="E35" s="21" t="s">
@@ -2494,10 +2530,10 @@
       <c r="C36" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="21">
         <v>32</v>
       </c>
-      <c r="E36" s="23"/>
+      <c r="E36" s="21"/>
       <c r="G36" t="s">
         <v>41</v>
       </c>
@@ -2509,7 +2545,7 @@
       <c r="C37" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="21">
         <v>35</v>
       </c>
       <c r="E37" s="21" t="s">
@@ -2526,10 +2562,10 @@
       <c r="C38" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="21">
         <v>40</v>
       </c>
-      <c r="E38" s="23"/>
+      <c r="E38" s="21"/>
       <c r="G38" t="s">
         <v>39</v>
       </c>
@@ -2541,7 +2577,7 @@
       <c r="C39" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="21">
         <v>45</v>
       </c>
       <c r="E39" s="21" t="s">
@@ -2558,10 +2594,10 @@
       <c r="C40" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="21">
         <v>37</v>
       </c>
-      <c r="E40" s="23"/>
+      <c r="E40" s="21"/>
       <c r="H40">
         <v>40</v>
       </c>
@@ -2573,37 +2609,37 @@
       <c r="C41" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="21">
         <v>35</v>
       </c>
-      <c r="E41" s="23"/>
+      <c r="E41" s="21"/>
     </row>
     <row r="42" ht="20.25" spans="3:5">
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
     </row>
     <row r="43" ht="20.25" spans="3:5">
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
     </row>
     <row r="44" ht="20.25" spans="3:5">
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
     </row>
     <row r="45" ht="20.25" spans="1:5">
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="23" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2619,7 +2655,7 @@
       </c>
     </row>
     <row r="47" ht="20.25" spans="3:5">
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="24" t="s">
         <v>56</v>
       </c>
       <c r="D47" s="21" t="s">
@@ -2630,119 +2666,120 @@
       </c>
     </row>
     <row r="48" ht="20.25" spans="3:5">
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="21">
         <v>18.5316652028392</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="21">
         <v>18.5316652028392</v>
       </c>
     </row>
     <row r="49" ht="20.25" spans="3:5">
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="21">
         <v>24</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="21">
         <v>104</v>
       </c>
     </row>
     <row r="50" ht="20.25" spans="3:5">
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="21">
         <v>50.5318043227294</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="21">
         <v>218.97115206516</v>
       </c>
     </row>
     <row r="51" ht="20.25" spans="3:5">
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="21">
         <v>54.5318043227294</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="21">
         <v>222.97115206516</v>
       </c>
     </row>
     <row r="52" ht="20.25" spans="3:5">
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="21">
         <v>45.5318043227294</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="21">
         <v>213.97115206516</v>
       </c>
     </row>
     <row r="53" ht="20.25" spans="3:5">
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="21">
         <v>135</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="21">
         <v>135</v>
       </c>
     </row>
     <row r="54" ht="20.25" spans="3:5">
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="21">
         <v>65</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="21">
         <v>70</v>
       </c>
     </row>
+    <row r="55" ht="14.25"/>
     <row r="56" ht="15" spans="3:5">
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="26" t="s">
+      <c r="E56" s="25" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:5">
-      <c r="A57" s="27" t="str">
+      <c r="A57" s="26" t="str">
         <f>_xlfn.DISPIMG("ID_D784CC6BA4504ADF819E48D0A8B6C4C5",1)</f>
         <v>=DISPIMG("ID_D784CC6BA4504ADF819E48D0A8B6C4C5",1)</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="28" t="s">
+      <c r="B57" s="26"/>
+      <c r="C57" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E57" s="28">
+      <c r="E57" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:7">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="28" t="s">
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="28">
+      <c r="E58" s="27">
         <v>8</v>
       </c>
       <c r="G58" t="s">
@@ -2750,54 +2787,54 @@
       </c>
     </row>
     <row r="59" ht="15" spans="1:5">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="28" t="s">
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E59" s="28">
+      <c r="E59" s="27">
         <v>12</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:5">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="28" t="s">
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="E60" s="28">
+      <c r="E60" s="27">
         <v>12</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:5">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="28" t="s">
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="28" t="s">
+      <c r="D61" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="28">
+      <c r="E61" s="27">
         <v>20</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:7">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="28" t="s">
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="28" t="s">
+      <c r="D62" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="28">
+      <c r="E62" s="27">
         <v>20</v>
       </c>
       <c r="G62" t="s">
@@ -2805,52 +2842,52 @@
       </c>
     </row>
     <row r="63" ht="15" spans="1:5">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="28" t="s">
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D63" s="28" t="s">
+      <c r="D63" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="E63" s="28">
+      <c r="E63" s="27">
         <v>4</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:5">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="28" t="s">
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="28" t="s">
+      <c r="D64" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E64" s="28">
+      <c r="E64" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:5">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="28" t="s">
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="28">
+      <c r="E65" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="66" ht="15" spans="3:7">
-      <c r="C66" s="28" t="s">
+      <c r="C66" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D66" s="28" t="s">
+      <c r="D66" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E66" s="28" t="s">
+      <c r="E66" s="27" t="s">
         <v>90</v>
       </c>
       <c r="G66" t="s">
@@ -2858,13 +2895,13 @@
       </c>
     </row>
     <row r="67" ht="15" spans="3:7">
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="E67" s="28">
+      <c r="E67" s="27">
         <v>8</v>
       </c>
       <c r="G67" t="s">
@@ -2872,35 +2909,35 @@
       </c>
     </row>
     <row r="68" ht="15" spans="3:5">
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E68" s="28">
+      <c r="E68" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="69" ht="15" spans="3:5">
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D69" s="28" t="s">
+      <c r="D69" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="E69" s="28">
+      <c r="E69" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="70" ht="15" spans="3:7">
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D70" s="28" t="s">
+      <c r="D70" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="E70" s="28" t="s">
+      <c r="E70" s="27" t="s">
         <v>101</v>
       </c>
       <c r="G70" t="s">
@@ -2908,91 +2945,91 @@
       </c>
     </row>
     <row r="71" ht="15" spans="3:5">
-      <c r="C71" s="28" t="s">
+      <c r="C71" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E71" s="28" t="s">
+      <c r="E71" s="27" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="72" ht="15" spans="3:5">
-      <c r="C72" s="28" t="s">
+      <c r="C72" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="28" t="s">
+      <c r="D72" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="E72" s="28" t="s">
+      <c r="E72" s="27" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="73" ht="15" spans="3:7">
-      <c r="C73" s="28" t="s">
+      <c r="C73" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D73" s="28" t="s">
+      <c r="D73" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E73" s="28"/>
+      <c r="E73" s="27"/>
       <c r="G73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="74" ht="15" spans="3:5">
-      <c r="C74" s="28" t="s">
+      <c r="C74" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D74" s="28" t="s">
+      <c r="D74" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E74" s="28" t="s">
+      <c r="E74" s="27" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="75" ht="15" spans="3:5">
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D75" s="28" t="s">
+      <c r="D75" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E75" s="28">
+      <c r="E75" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="76" ht="15" spans="3:5">
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D76" s="28" t="s">
+      <c r="D76" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="E76" s="28">
+      <c r="E76" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="77" ht="15" spans="3:5">
-      <c r="C77" s="28" t="s">
+      <c r="C77" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="27" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="78" ht="15" spans="3:7">
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="D78" s="28" t="s">
+      <c r="D78" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="E78" s="28" t="s">
+      <c r="E78" s="27" t="s">
         <v>124</v>
       </c>
       <c r="G78" t="s">
@@ -3000,13 +3037,13 @@
       </c>
     </row>
     <row r="79" ht="15" spans="3:9">
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D79" s="28" t="s">
+      <c r="D79" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="E79" s="28">
+      <c r="E79" s="27">
         <v>10</v>
       </c>
       <c r="G79" t="s">
@@ -3017,96 +3054,96 @@
       </c>
     </row>
     <row r="80" ht="29.25" spans="3:5">
-      <c r="C80" s="28" t="s">
+      <c r="C80" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D80" s="28" t="s">
+      <c r="D80" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="E80" s="28" t="s">
+      <c r="E80" s="27" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="83" ht="28.5" spans="1:1">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="30" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="84" ht="99.75" spans="1:1">
-      <c r="A84" s="32" t="s">
+      <c r="A84" s="31" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="85" ht="28.5" spans="1:1">
-      <c r="A85" s="32" t="s">
+      <c r="A85" s="31" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="86" ht="85.5" spans="1:1">
-      <c r="A86" s="31" t="s">
+      <c r="A86" s="30" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="87" ht="57" spans="1:1">
-      <c r="A87" s="31" t="s">
+      <c r="A87" s="30" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="88" ht="28.5" spans="1:1">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="30" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="89" ht="128.25" spans="1:1">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="30" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="90" ht="28.5" spans="1:1">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="30" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="91" ht="28.5" spans="1:1">
-      <c r="A91" s="32" t="s">
+      <c r="A91" s="31" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="93" ht="27" spans="2:3">
-      <c r="B93" s="33" t="s">
+      <c r="B93" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="C93" s="34"/>
+      <c r="C93" s="32"/>
     </row>
     <row r="94" ht="27" spans="2:3">
-      <c r="B94" s="33" t="s">
+      <c r="B94" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C94" s="34">
+      <c r="C94" s="32">
         <v>62</v>
       </c>
     </row>
     <row r="95" ht="27" spans="2:3">
-      <c r="B95" s="33" t="s">
+      <c r="B95" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="C95" s="34">
+      <c r="C95" s="32">
         <v>64</v>
       </c>
     </row>
     <row r="96" ht="27" spans="2:3">
-      <c r="B96" s="33" t="s">
+      <c r="B96" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="34">
+      <c r="C96" s="32">
         <v>30.4</v>
       </c>
     </row>
     <row r="97" ht="27" spans="2:4">
-      <c r="B97" s="33" t="s">
+      <c r="B97" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C97" s="34">
+      <c r="C97" s="32">
         <v>9.6</v>
       </c>
       <c r="D97" t="s">
@@ -3114,188 +3151,188 @@
       </c>
     </row>
     <row r="98" ht="27" spans="2:3">
-      <c r="B98" s="33" t="s">
+      <c r="B98" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C98" s="34">
+      <c r="C98" s="32">
         <v>70</v>
       </c>
     </row>
     <row r="99" ht="27" spans="2:3">
-      <c r="B99" s="34">
+      <c r="B99" s="32">
         <v>4</v>
       </c>
-      <c r="C99" s="33" t="s">
+      <c r="C99" s="32" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="100" ht="27" spans="2:3">
-      <c r="B100" s="34">
+      <c r="B100" s="32">
         <v>6</v>
       </c>
-      <c r="C100" s="34"/>
+      <c r="C100" s="32"/>
     </row>
     <row r="101" ht="27" spans="2:3">
-      <c r="B101" s="33" t="s">
+      <c r="B101" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="C101" s="34">
+      <c r="C101" s="32">
         <v>56</v>
       </c>
     </row>
     <row r="102" ht="27" spans="2:3">
-      <c r="B102" s="33" t="s">
+      <c r="B102" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C102" s="34">
+      <c r="C102" s="32">
         <v>48</v>
       </c>
     </row>
     <row r="103" ht="27" spans="2:3">
-      <c r="B103" s="33" t="s">
+      <c r="B103" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C103" s="34">
+      <c r="C103" s="32">
         <v>68</v>
       </c>
     </row>
     <row r="104" ht="27" spans="2:3">
-      <c r="B104" s="33" t="s">
+      <c r="B104" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C104" s="34">
+      <c r="C104" s="32">
         <v>10</v>
       </c>
     </row>
     <row r="105" ht="27" spans="2:3">
-      <c r="B105" s="34">
+      <c r="B105" s="32">
         <v>6207</v>
       </c>
-      <c r="C105" s="34">
+      <c r="C105" s="32">
         <v>17</v>
       </c>
     </row>
     <row r="106" ht="27" spans="2:3">
-      <c r="B106" s="33" t="s">
+      <c r="B106" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C106" s="34">
+      <c r="C106" s="32">
         <v>70</v>
       </c>
     </row>
     <row r="107" ht="27" spans="2:3">
-      <c r="B107" s="33" t="s">
+      <c r="B107" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C107" s="34">
+      <c r="C107" s="32">
         <v>8</v>
       </c>
     </row>
     <row r="108" ht="27" spans="2:3">
-      <c r="B108" s="33" t="s">
+      <c r="B108" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C108" s="34"/>
+      <c r="C108" s="32"/>
     </row>
     <row r="109" ht="27" spans="2:3">
-      <c r="B109" s="33" t="s">
+      <c r="B109" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C109" s="34">
+      <c r="C109" s="32">
         <v>29</v>
       </c>
     </row>
     <row r="110" ht="27" spans="2:3">
-      <c r="B110" s="33" t="s">
+      <c r="B110" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C110" s="34">
+      <c r="C110" s="32">
         <v>8</v>
       </c>
     </row>
     <row r="111" ht="27" spans="2:3">
-      <c r="B111" s="33" t="s">
+      <c r="B111" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C111" s="34"/>
+      <c r="C111" s="32"/>
     </row>
     <row r="112" ht="27" spans="2:3">
-      <c r="B112" s="33" t="s">
+      <c r="B112" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C112" s="34">
+      <c r="C112" s="32">
         <v>110</v>
       </c>
     </row>
     <row r="113" ht="27" spans="2:3">
-      <c r="B113" s="33" t="s">
+      <c r="B113" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C113" s="34">
+      <c r="C113" s="32">
         <v>63</v>
       </c>
     </row>
     <row r="114" ht="27" spans="2:3">
-      <c r="B114" s="33" t="s">
+      <c r="B114" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="C114" s="34">
+      <c r="C114" s="32">
         <v>9.6</v>
       </c>
     </row>
     <row r="115" ht="27" spans="2:3">
-      <c r="B115" s="33" t="s">
+      <c r="B115" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C115" s="34">
+      <c r="C115" s="32">
         <v>56</v>
       </c>
     </row>
     <row r="116" ht="27" spans="2:3">
-      <c r="B116" s="33" t="s">
+      <c r="B116" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="C116" s="34">
+      <c r="C116" s="32">
         <v>10.4</v>
       </c>
     </row>
     <row r="117" ht="27" spans="2:3">
-      <c r="B117" s="34">
+      <c r="B117" s="32">
         <v>6210</v>
       </c>
-      <c r="C117" s="34">
+      <c r="C117" s="32">
         <v>20</v>
       </c>
     </row>
     <row r="118" ht="27" spans="2:3">
-      <c r="B118" s="33" t="s">
+      <c r="B118" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="C118" s="34">
+      <c r="C118" s="32">
         <v>46</v>
       </c>
     </row>
     <row r="119" ht="27" spans="2:3">
-      <c r="B119" s="33" t="s">
+      <c r="B119" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C119" s="34">
+      <c r="C119" s="32">
         <v>10.5</v>
       </c>
     </row>
     <row r="120" ht="27" spans="2:3">
-      <c r="B120" s="33" t="s">
+      <c r="B120" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="C120" s="34">
+      <c r="C120" s="32">
         <v>32</v>
       </c>
     </row>
     <row r="121" ht="27" spans="2:3">
-      <c r="B121" s="33" t="s">
+      <c r="B121" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="C121" s="33" t="s">
+      <c r="C121" s="32" t="s">
         <v>163</v>
       </c>
     </row>
